--- a/data/trans_dic/P11_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P11_R-Clase-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0.1587668126407945</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.2417928697850131</v>
+        <v>0.241792869785013</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1187639152712899</v>
+        <v>0.1185479528115998</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.08905934192565258</v>
+        <v>0.08986146753631614</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1080287381774677</v>
+        <v>0.1106317713663526</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1840221428518587</v>
+        <v>0.1854207745991078</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1774600040193832</v>
+        <v>0.1766122104362911</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1211661411116867</v>
+        <v>0.1236982468292392</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1401981593045465</v>
+        <v>0.1332152890786008</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.2416689989059416</v>
+        <v>0.236318149327019</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1506611539628415</v>
+        <v>0.1543327522830905</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.1147546491980119</v>
+        <v>0.1169888550380725</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.1327103652350458</v>
+        <v>0.1320634378756136</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.2170459593794912</v>
+        <v>0.2176057113489896</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1862886576197992</v>
+        <v>0.1865735151280342</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1592234810896344</v>
+        <v>0.1581853243301367</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1809033560376039</v>
+        <v>0.1815739699933281</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.250349104302636</v>
+        <v>0.251333753389675</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2725800451958457</v>
+        <v>0.2764828092653048</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.2107370468119757</v>
+        <v>0.2136337007765767</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.2264166257872191</v>
+        <v>0.2179316090064071</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.3083063588715018</v>
+        <v>0.3050422514529822</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.2087302318549019</v>
+        <v>0.2074803144186524</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1688200844069977</v>
+        <v>0.1685108876224309</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.1878163066140912</v>
+        <v>0.1854792325534029</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.2640588288587175</v>
+        <v>0.2690904607724101</v>
       </c>
     </row>
     <row r="7">
@@ -833,7 +833,7 @@
         <v>0.1570761357168265</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.2535728126214638</v>
+        <v>0.2535728126214637</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.08659150255748251</v>
+        <v>0.08882937249844641</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1281822527660711</v>
+        <v>0.1296099636557368</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.08813005008247163</v>
+        <v>0.08919322928686846</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1901358804382214</v>
+        <v>0.1839651466441949</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1428391717517052</v>
+        <v>0.1449467153419484</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1484675798579895</v>
+        <v>0.1412784374395075</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1536623937145637</v>
+        <v>0.1488851926308148</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.2520411872734066</v>
+        <v>0.2576723457573398</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1240250337795505</v>
+        <v>0.1229652786331206</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.1462038544677614</v>
+        <v>0.1466924491753346</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.1294793158760196</v>
+        <v>0.131110758397678</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.2289250992420671</v>
+        <v>0.2293432974326888</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1593532558543151</v>
+        <v>0.157194700498782</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2082612582046688</v>
+        <v>0.2062462377414644</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1570019048006487</v>
+        <v>0.1596898836883344</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2619140007542932</v>
+        <v>0.2620673992879749</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2242214700624692</v>
+        <v>0.2338757811005219</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.2376070303526949</v>
+        <v>0.2332346820091303</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.2392157013224738</v>
+        <v>0.2341656000696539</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.3291677445593755</v>
+        <v>0.3258155804520447</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1775089994963578</v>
+        <v>0.1765760539231469</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.2033147150577911</v>
+        <v>0.2042915081200162</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.1843432016627937</v>
+        <v>0.1867654724311191</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2817077969962374</v>
+        <v>0.2792634578867456</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.2878208777217313</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.4476656006761639</v>
+        <v>0.4476656006761638</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.2100404146011937</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1532401586891724</v>
+        <v>0.152716673406869</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1946295433736625</v>
+        <v>0.2002018246561903</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1688793588615897</v>
+        <v>0.1705784047468386</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2580752537567677</v>
+        <v>0.2582666767505822</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.225768921597063</v>
+        <v>0.2318665695461079</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2557503068155492</v>
+        <v>0.2658238800191795</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.2132038777775505</v>
+        <v>0.2117833528182133</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.3841352894003072</v>
+        <v>0.3917952730340595</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1797025599838153</v>
+        <v>0.1821297635055398</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.2261395623703841</v>
+        <v>0.2277396761757893</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.1912477103634946</v>
+        <v>0.192534870930046</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.308061453809256</v>
+        <v>0.3050294665199098</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2165056910646379</v>
+        <v>0.217009061530125</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2711576766263655</v>
+        <v>0.2739048425619392</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2371354849459487</v>
+        <v>0.2406424051638595</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.3395923305164797</v>
+        <v>0.3397980124091849</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3731256273945739</v>
+        <v>0.374853968510897</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.3819961058646863</v>
+        <v>0.379021231467904</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.3684821127410497</v>
+        <v>0.3620324818854007</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.5030809283049893</v>
+        <v>0.5075629100950492</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.2416839661731472</v>
+        <v>0.2482657897930754</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.2885523975756595</v>
+        <v>0.2914692671147593</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.2574470816783571</v>
+        <v>0.25913000731835</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.3787432748354146</v>
+        <v>0.3765229251445009</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.2201563070924351</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.3057988412672239</v>
+        <v>0.305798841267224</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.2642329699036443</v>
@@ -1093,7 +1093,7 @@
         <v>0.2464373562497381</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.3476017489360704</v>
+        <v>0.3476017489360703</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.2415697510157169</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2043633886744488</v>
+        <v>0.2071571801153028</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1964670009664885</v>
+        <v>0.1983393357672577</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1980556274670873</v>
+        <v>0.1971753408021573</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.2787958184188725</v>
+        <v>0.2787899552377054</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2317916427270038</v>
+        <v>0.2319840433677683</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2188932183538437</v>
+        <v>0.2174408986879785</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.215322778585713</v>
+        <v>0.219932427745731</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.3206817238332944</v>
+        <v>0.320012996535052</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.2224278095015546</v>
+        <v>0.2238864922430825</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.2153521967396475</v>
+        <v>0.2141322075057727</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.2129348757127799</v>
+        <v>0.2119260542014012</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.304458334648787</v>
+        <v>0.30450265354882</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2507355929331205</v>
+        <v>0.2521712897567652</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2479606898199933</v>
+        <v>0.2505195383225153</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2478059656418899</v>
+        <v>0.2469635900487759</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.3360898716018021</v>
+        <v>0.3344317538505628</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2979297779386851</v>
+        <v>0.2987703006257044</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.2828816172149191</v>
+        <v>0.2843488692200131</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.2767312856218287</v>
+        <v>0.281873803381934</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.3746015724134144</v>
+        <v>0.3730202697897186</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2624199499078367</v>
+        <v>0.2616714779106623</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.2545456968116421</v>
+        <v>0.2545254023967098</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.2515183992436076</v>
+        <v>0.2504122242709473</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.345083877242377</v>
+        <v>0.3463289271117869</v>
       </c>
     </row>
     <row r="16">
@@ -1241,7 +1241,7 @@
         <v>0.3038781463935299</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.4013970844141723</v>
+        <v>0.4013970844141721</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1759844064254666</v>
+        <v>0.179259185060297</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1660967725048136</v>
+        <v>0.1628381278350296</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2037731180824738</v>
+        <v>0.2032710968088476</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.2763480938107378</v>
+        <v>0.2770576783312838</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2462022707194628</v>
+        <v>0.2470176295241252</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.3575738985733795</v>
+        <v>0.357543000581803</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.3212667912269392</v>
+        <v>0.3282594712561948</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.4277129860498193</v>
+        <v>0.4280105461856713</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.2278645039249734</v>
+        <v>0.2306737073569677</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.2904878145227598</v>
+        <v>0.287366770161219</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.2809225514283522</v>
+        <v>0.2801901335862458</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.378217005058627</v>
+        <v>0.380196007054325</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.270118673523747</v>
+        <v>0.2681051567358709</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2346609068140506</v>
+        <v>0.2346192682730615</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2723768279684534</v>
+        <v>0.2716404792676338</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.3585578649568878</v>
+        <v>0.3594483089436781</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.3256922710947869</v>
+        <v>0.3247692484362083</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.4295348561414036</v>
+        <v>0.4278204391375709</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.3964568690042824</v>
+        <v>0.4008388924571737</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.4863678603645056</v>
+        <v>0.4867791118803546</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.2902693473221352</v>
+        <v>0.2936277959051989</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.3417380659639649</v>
+        <v>0.3408751910949844</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.3342772732527043</v>
+        <v>0.3281976635602685</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.4235657748745734</v>
+        <v>0.4255420911339298</v>
       </c>
     </row>
     <row r="19">
@@ -1365,7 +1365,7 @@
         <v>0.3366661821904915</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.3974864904030998</v>
+        <v>0.3974864904030999</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.3031011130696624</v>
@@ -1377,7 +1377,7 @@
         <v>0.2773609261900871</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.333991569933218</v>
+        <v>0.3339915699332179</v>
       </c>
     </row>
     <row r="20">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.04030562296315617</v>
+        <v>0.04425550042538985</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.04490048984667573</v>
+        <v>0.04480735961048372</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.02853879127275065</v>
+        <v>0.03029039342282135</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.064612697932482</v>
+        <v>0.06424038204539981</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.3327467765918431</v>
+        <v>0.3331832190894232</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.3507661923620669</v>
+        <v>0.3502243274226065</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.3070462995227546</v>
+        <v>0.308594984449839</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.3643293599861805</v>
+        <v>0.3667761605041477</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.2799057155614892</v>
+        <v>0.2813480968235305</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.2960355662308187</v>
+        <v>0.2937307857203302</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.2552274840553947</v>
+        <v>0.252956321368394</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.3026990832035314</v>
+        <v>0.3040493516804866</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.1028321479874395</v>
+        <v>0.100689205300792</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.1100357597708792</v>
+        <v>0.1117658291520259</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.08488673677500558</v>
+        <v>0.09057617239435674</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.1813064042176963</v>
+        <v>0.1782836190755035</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.386996175401913</v>
+        <v>0.3878906580521229</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.4085327606965636</v>
+        <v>0.4090369221643107</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.3680082165424473</v>
+        <v>0.3691964642317431</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.4274690969098963</v>
+        <v>0.4273586428994806</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.3294476815841523</v>
+        <v>0.3270507109518666</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.3467029791460684</v>
+        <v>0.3448822033456221</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.3065536593666953</v>
+        <v>0.3027629134362876</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.3631937565330014</v>
+        <v>0.362039389359288</v>
       </c>
     </row>
     <row r="22">
@@ -1501,7 +1501,7 @@
         <v>0.2873071373264588</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.3730911829932629</v>
+        <v>0.373091182993263</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>0.2377169761639842</v>
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.1684102181868288</v>
+        <v>0.1694731716149784</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.175743812693758</v>
+        <v>0.1745753864947801</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1728271311174581</v>
+        <v>0.1729849946492202</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2525978086827486</v>
+        <v>0.2521414263427577</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2763697592246578</v>
+        <v>0.2764871687075999</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.2949801795044879</v>
+        <v>0.2963837458637928</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.2726671937851715</v>
+        <v>0.2716336528760221</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.3598947012755782</v>
+        <v>0.3598019458914163</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.2272202767094048</v>
+        <v>0.228477940934231</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.2405437881285713</v>
+        <v>0.2414585004198036</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.2275181774912963</v>
+        <v>0.2263402746620942</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.3100435396468019</v>
+        <v>0.3104548995412692</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1959905085638875</v>
+        <v>0.1956118048830366</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.203042185243553</v>
+        <v>0.2033160118218428</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.200594367989441</v>
+        <v>0.1997769326761807</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.2833721037330784</v>
+        <v>0.2820237333134905</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.3072593790340433</v>
+        <v>0.3071556708200501</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.3274355551489778</v>
+        <v>0.3272088015308927</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.3025245913141516</v>
+        <v>0.302714214949742</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.3871981652443034</v>
+        <v>0.3873163731690234</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.2483350259980523</v>
+        <v>0.2476760265544403</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.2623321202539816</v>
+        <v>0.2629313688096367</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.249091479614768</v>
+        <v>0.2475709758685279</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.3320129683527163</v>
+        <v>0.3324761300598714</v>
       </c>
     </row>
     <row r="25">
@@ -1874,40 +1874,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>56267</v>
+        <v>56165</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>38683</v>
+        <v>39032</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>45839</v>
+        <v>46943</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>101036</v>
+        <v>101803</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>54423</v>
+        <v>54163</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>38101</v>
+        <v>38897</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>48267</v>
+        <v>45863</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>117650</v>
+        <v>115045</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>117585</v>
+        <v>120450</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>85929</v>
+        <v>87602</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>102001</v>
+        <v>101503</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>224829</v>
+        <v>225409</v>
       </c>
     </row>
     <row r="7">
@@ -1918,40 +1918,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>88259</v>
+        <v>88394</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>69160</v>
+        <v>68709</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>76761</v>
+        <v>77045</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>137452</v>
+        <v>137992</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>83595</v>
+        <v>84792</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>66267</v>
+        <v>67178</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>77950</v>
+        <v>75029</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>150090</v>
+        <v>148501</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>162905</v>
+        <v>161929</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>126414</v>
+        <v>126183</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>144355</v>
+        <v>142558</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>273528</v>
+        <v>278740</v>
       </c>
     </row>
     <row r="8">
@@ -2054,40 +2054,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>31773</v>
+        <v>32595</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>53554</v>
+        <v>54151</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>33158</v>
+        <v>33558</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>91685</v>
+        <v>88709</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>53117</v>
+        <v>53901</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>50045</v>
+        <v>47622</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>56910</v>
+        <v>55141</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>106484</v>
+        <v>108863</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>91630</v>
+        <v>90847</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>110365</v>
+        <v>110734</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>96669</v>
+        <v>97887</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>207107</v>
+        <v>207486</v>
       </c>
     </row>
     <row r="11">
@@ -2098,40 +2098,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>58472</v>
+        <v>57680</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>87011</v>
+        <v>86169</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>59071</v>
+        <v>60082</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>126297</v>
+        <v>126371</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>83380</v>
+        <v>86970</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>80092</v>
+        <v>78618</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>88595</v>
+        <v>86725</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>139069</v>
+        <v>137653</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>131143</v>
+        <v>130454</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>153477</v>
+        <v>154214</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>137631</v>
+        <v>139439</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>254859</v>
+        <v>252648</v>
       </c>
     </row>
     <row r="12">
@@ -2234,40 +2234,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>83116</v>
+        <v>82832</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>121702</v>
+        <v>125186</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>87507</v>
+        <v>88387</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>121443</v>
+        <v>121533</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>37880</v>
+        <v>38903</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>66279</v>
+        <v>68890</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>34956</v>
+        <v>34723</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>72024</v>
+        <v>73460</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>127620</v>
+        <v>129343</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>200011</v>
+        <v>201426</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>130454</v>
+        <v>131332</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>202726</v>
+        <v>200730</v>
       </c>
     </row>
     <row r="15">
@@ -2278,40 +2278,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>117430</v>
+        <v>117703</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>169555</v>
+        <v>171273</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>122875</v>
+        <v>124692</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>159803</v>
+        <v>159899</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>62604</v>
+        <v>62894</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>98997</v>
+        <v>98226</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>60414</v>
+        <v>59357</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>94326</v>
+        <v>95167</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>171637</v>
+        <v>176311</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>255212</v>
+        <v>257792</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>175609</v>
+        <v>176757</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>249239</v>
+        <v>247778</v>
       </c>
     </row>
     <row r="16">
@@ -2414,40 +2414,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>253070</v>
+        <v>256530</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>226948</v>
+        <v>229111</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>226081</v>
+        <v>225076</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>315553</v>
+        <v>315546</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>165565</v>
+        <v>165703</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>167593</v>
+        <v>166481</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>176546</v>
+        <v>180325</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>276175</v>
+        <v>275599</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>434317</v>
+        <v>437165</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>413645</v>
+        <v>411302</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>417654</v>
+        <v>415675</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>606802</v>
+        <v>606890</v>
       </c>
     </row>
     <row r="19">
@@ -2458,40 +2458,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>310494</v>
+        <v>312272</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>286431</v>
+        <v>289387</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>282872</v>
+        <v>281910</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>380401</v>
+        <v>378524</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>212807</v>
+        <v>213407</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>216585</v>
+        <v>217708</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>226896</v>
+        <v>231112</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>322611</v>
+        <v>321249</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>512406</v>
+        <v>510945</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>488927</v>
+        <v>488888</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>493332</v>
+        <v>491163</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>687771</v>
+        <v>690252</v>
       </c>
     </row>
     <row r="20">
@@ -2594,40 +2594,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>61692</v>
+        <v>62840</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>84243</v>
+        <v>82590</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>125808</v>
+        <v>125498</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>156956</v>
+        <v>157359</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>140028</v>
+        <v>140492</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>271965</v>
+        <v>271941</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>236241</v>
+        <v>241383</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>355166</v>
+        <v>355413</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>209477</v>
+        <v>212060</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>368273</v>
+        <v>364316</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>380013</v>
+        <v>379022</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>528879</v>
+        <v>531646</v>
       </c>
     </row>
     <row r="23">
@@ -2638,40 +2638,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>94691</v>
+        <v>93986</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>119018</v>
+        <v>118997</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>168163</v>
+        <v>167708</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>203648</v>
+        <v>204154</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>185238</v>
+        <v>184713</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>326697</v>
+        <v>325393</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>291531</v>
+        <v>294753</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>403872</v>
+        <v>404214</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>266847</v>
+        <v>269934</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>433246</v>
+        <v>432152</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>452188</v>
+        <v>443963</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>592292</v>
+        <v>595056</v>
       </c>
     </row>
     <row r="24">
@@ -2774,40 +2774,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>12019</v>
+        <v>13197</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>11900</v>
+        <v>11875</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>8087</v>
+        <v>8584</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>15328</v>
+        <v>15240</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>415521</v>
+        <v>416066</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>389123</v>
+        <v>388522</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>330136</v>
+        <v>331802</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>306960</v>
+        <v>309022</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>433003</v>
+        <v>435234</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>406866</v>
+        <v>403698</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>346747</v>
+        <v>343662</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>326843</v>
+        <v>328301</v>
       </c>
     </row>
     <row r="27">
@@ -2818,40 +2818,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>30665</v>
+        <v>30026</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>29163</v>
+        <v>29621</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>24055</v>
+        <v>25667</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>43011</v>
+        <v>42294</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>483265</v>
+        <v>484382</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>453206</v>
+        <v>453766</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>395683</v>
+        <v>396960</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>360158</v>
+        <v>360065</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>509642</v>
+        <v>505934</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>476502</v>
+        <v>474000</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>416478</v>
+        <v>411328</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>392163</v>
+        <v>390917</v>
       </c>
     </row>
     <row r="28">
@@ -2954,40 +2954,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>550733</v>
+        <v>554209</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>598376</v>
+        <v>594397</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>580872</v>
+        <v>581403</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>868647</v>
+        <v>867078</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>933611</v>
+        <v>934008</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>1046076</v>
+        <v>1051054</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>956801</v>
+        <v>953174</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>1306755</v>
+        <v>1306418</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>1510632</v>
+        <v>1518993</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>1672039</v>
+        <v>1678397</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>1563060</v>
+        <v>1554968</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>2191942</v>
+        <v>2194851</v>
       </c>
     </row>
     <row r="31">
@@ -2998,40 +2998,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>640926</v>
+        <v>639688</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>691322</v>
+        <v>692254</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>674198</v>
+        <v>671450</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>974475</v>
+        <v>969838</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>1037960</v>
+        <v>1037610</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>1161172</v>
+        <v>1160367</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>1061571</v>
+        <v>1062237</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>1405892</v>
+        <v>1406321</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>1651009</v>
+        <v>1646628</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>1823491</v>
+        <v>1827656</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>1711269</v>
+        <v>1700823</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>2347262</v>
+        <v>2350536</v>
       </c>
     </row>
     <row r="32">
